--- a/pythonproject/01/test.xlsx
+++ b/pythonproject/01/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pythonproject\01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python\pythonproject\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495126C5-7860-4A7A-B20A-7B7767BB7B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6897C0-FD38-40EC-A995-5052B85A98D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,8 +469,38 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
       <c r="E6" s="1">
         <v>43847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
